--- a/documentation/megkellmegcsinalni.xlsx
+++ b/documentation/megkellmegcsinalni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dipterv2024\Diplomamunka_2024\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871B9DBB-A25C-4C27-A7DB-F81BEFC5BF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E7FF8F-55EF-462D-98A9-77C8A852B4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26550" yWindow="1245" windowWidth="16410" windowHeight="18690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +156,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -169,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,6 +185,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -462,7 +469,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +512,7 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
+      <c r="D3" s="7"/>
       <c r="E3" t="s">
         <v>14</v>
       </c>
@@ -518,6 +526,7 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" s="7"/>
       <c r="E4" t="s">
         <v>15</v>
       </c>
@@ -531,6 +540,7 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="3"/>
       <c r="E5" t="s">
         <v>16</v>
       </c>
@@ -544,6 +554,7 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
+      <c r="D6" s="3"/>
       <c r="E6" t="s">
         <v>17</v>
       </c>
@@ -559,6 +570,7 @@
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
